--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,6 +1580,1131 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112154275</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>442616.138687243</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6204441.08982533</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112154273</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>442541.7120545401</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6204451.031370129</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112154281</v>
+      </c>
+      <c r="B11" t="n">
+        <v>42578</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100770</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mindre blåvinge</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cupido minimus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fuessly, 1775)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>friflygande</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>442664.1890363992</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6204260.315617888</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112154283</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44331</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>201164</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sexfläckig bastardsvärmare</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Zygaena filipendulae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>442664.1890363992</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6204260.315617888</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112154272</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>442480.1045430943</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6204371.296283903</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112154276</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39449</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>102471</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nemophora metallica</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>442616.138687243</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6204441.08982533</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112154282</v>
+      </c>
+      <c r="B15" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>442664.1890363992</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6204260.315617888</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112145588</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42578</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100770</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mindre blåvinge</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cupido minimus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fuessly, 1775)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>442602.7188004656</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6204401.54979612</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2013-06-12</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2013-06-12</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>i igenväxande hed</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>på praktveronika</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112154275</v>
+        <v>112154283</v>
       </c>
       <c r="B9" t="n">
-        <v>44322</v>
+        <v>44331</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102366</v>
+        <v>201164</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Sexfläckig bastardsvärmare</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Zygaena filipendulae</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442616.138687243</v>
+        <v>442664.1890363992</v>
       </c>
       <c r="R9" t="n">
-        <v>6204441.08982533</v>
+        <v>6204260.315617888</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112154273</v>
+        <v>112154281</v>
       </c>
       <c r="B10" t="n">
-        <v>44322</v>
+        <v>42578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1738,26 +1738,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>friflygande</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442541.7120545401</v>
+        <v>442664.1890363992</v>
       </c>
       <c r="R10" t="n">
-        <v>6204451.031370129</v>
+        <v>6204260.315617888</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1836,11 +1836,6 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1862,10 +1857,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112154281</v>
+        <v>112154275</v>
       </c>
       <c r="B11" t="n">
-        <v>42578</v>
+        <v>44322</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1878,26 +1873,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1907,7 +1902,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>friflygande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1916,10 +1911,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442664.1890363992</v>
+        <v>442616.138687243</v>
       </c>
       <c r="R11" t="n">
-        <v>6204260.315617888</v>
+        <v>6204441.08982533</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1976,6 +1971,11 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112154283</v>
+        <v>112154282</v>
       </c>
       <c r="B12" t="n">
-        <v>44331</v>
+        <v>44322</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>201164</v>
+        <v>102366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sexfläckig bastardsvärmare</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Zygaena filipendulae</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2277,10 +2277,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112154276</v>
+        <v>112145591</v>
       </c>
       <c r="B14" t="n">
-        <v>39449</v>
+        <v>42546</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2293,21 +2293,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102471</v>
+        <v>102923</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Lycaena hippothoe</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2320,21 +2320,32 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>vilande</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442616.138687243</v>
+        <v>442542.9522655545</v>
       </c>
       <c r="R14" t="n">
-        <v>6204441.08982533</v>
+        <v>6204459.965453062</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2361,7 +2372,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2371,7 +2382,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2379,23 +2390,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på tjärblomster</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>NON 04542</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2406,7 +2433,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2417,10 +2444,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112154282</v>
+        <v>112154276</v>
       </c>
       <c r="B15" t="n">
-        <v>44322</v>
+        <v>39449</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2433,26 +2460,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102366</v>
+        <v>102471</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Poda, 1761)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2471,10 +2498,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>442664.1890363992</v>
+        <v>442616.138687243</v>
       </c>
       <c r="R15" t="n">
-        <v>6204260.315617888</v>
+        <v>6204441.08982533</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2700,6 +2727,146 @@
         </is>
       </c>
       <c r="AY16" t="inlineStr">
+        <is>
+          <t>Krst NV-program 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112154273</v>
+      </c>
+      <c r="B17" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>102366</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Adscita statices</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>442541.7120545401</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6204451.031370129</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Vä</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2013-07-09</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
         <is>
           <t>Krst NV-program 2013</t>
         </is>

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -2584,10 +2584,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112145588</v>
+        <v>112154273</v>
       </c>
       <c r="B16" t="n">
-        <v>42578</v>
+        <v>44322</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2600,26 +2600,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2627,19 +2627,9 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2648,10 +2638,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>442602.7188004656</v>
+        <v>442541.7120545401</v>
       </c>
       <c r="R16" t="n">
-        <v>6204401.54979612</v>
+        <v>6204451.031370129</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2678,7 +2668,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2688,7 +2678,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2707,12 +2697,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>på praktveronika</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2723,7 +2713,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2734,10 +2724,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112154273</v>
+        <v>112145588</v>
       </c>
       <c r="B17" t="n">
-        <v>44322</v>
+        <v>42578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2750,26 +2740,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2777,9 +2767,19 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2788,10 +2788,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442541.7120545401</v>
+        <v>442602.7188004656</v>
       </c>
       <c r="R17" t="n">
-        <v>6204451.031370129</v>
+        <v>6204401.54979612</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2847,12 +2847,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på praktveronika</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>442660.5098294366</v>
+        <v>442661</v>
       </c>
       <c r="R8" t="n">
-        <v>6204405.256432567</v>
+        <v>6204405</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1529,19 +1529,9 @@
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-05-01</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1582,10 +1572,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112154283</v>
+        <v>112145588</v>
       </c>
       <c r="B9" t="n">
-        <v>44331</v>
+        <v>42578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1598,21 +1588,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>201164</v>
+        <v>100770</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sexfläckig bastardsvärmare</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Zygaena filipendulae</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1625,6 +1615,16 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>födosökande</t>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442664.1890363992</v>
+        <v>442603</v>
       </c>
       <c r="R9" t="n">
-        <v>6204260.315617888</v>
+        <v>6204402</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1666,22 +1666,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1695,12 +1685,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på praktveronika</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1711,7 +1701,7 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1722,10 +1712,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112154281</v>
+        <v>112154282</v>
       </c>
       <c r="B10" t="n">
-        <v>42578</v>
+        <v>44322</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1738,26 +1728,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1767,7 +1757,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>friflygande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1776,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442664.1890363992</v>
+        <v>442664</v>
       </c>
       <c r="R10" t="n">
-        <v>6204260.315617888</v>
+        <v>6204260</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1809,21 +1799,11 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1836,6 +1816,11 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1857,10 +1842,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112154275</v>
+        <v>112154276</v>
       </c>
       <c r="B11" t="n">
-        <v>44322</v>
+        <v>39449</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1873,26 +1858,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102366</v>
+        <v>102471</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Poda, 1761)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1911,10 +1896,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442616.138687243</v>
+        <v>442616</v>
       </c>
       <c r="R11" t="n">
-        <v>6204441.08982533</v>
+        <v>6204441</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1944,21 +1929,11 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1975,7 +1950,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1997,10 +1972,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112154282</v>
+        <v>112154281</v>
       </c>
       <c r="B12" t="n">
-        <v>44322</v>
+        <v>42578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2013,26 +1988,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2042,7 +2017,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>friflygande</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2051,10 +2026,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442664.1890363992</v>
+        <v>442664</v>
       </c>
       <c r="R12" t="n">
-        <v>6204260.315617888</v>
+        <v>6204260</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2084,21 +2059,11 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2111,11 +2076,6 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,7 +2097,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112154272</v>
+        <v>112154273</v>
       </c>
       <c r="B13" t="n">
         <v>44322</v>
@@ -2172,7 +2132,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2191,10 +2151,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442480.1045430943</v>
+        <v>442542</v>
       </c>
       <c r="R13" t="n">
-        <v>6204371.296283903</v>
+        <v>6204451</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2224,19 +2184,9 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2013-07-09</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2277,10 +2227,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112145591</v>
+        <v>112154283</v>
       </c>
       <c r="B14" t="n">
-        <v>42546</v>
+        <v>44331</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2293,21 +2243,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102923</v>
+        <v>201164</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Sexfläckig bastardsvärmare</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycaena hippothoe</t>
+          <t>Zygaena filipendulae</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1760)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2320,32 +2270,21 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>födosökande</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442542.9522655545</v>
+        <v>442664</v>
       </c>
       <c r="R14" t="n">
-        <v>6204459.965453062</v>
+        <v>6204260</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2372,27 +2311,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2401,28 +2325,17 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>på tjärblomster</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>NON 04542</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2433,7 +2346,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2444,10 +2357,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112154276</v>
+        <v>112154275</v>
       </c>
       <c r="B15" t="n">
-        <v>39449</v>
+        <v>44322</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2460,26 +2373,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102471</v>
+        <v>102366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2498,10 +2411,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>442616.138687243</v>
+        <v>442616</v>
       </c>
       <c r="R15" t="n">
-        <v>6204441.08982533</v>
+        <v>6204441</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2531,21 +2444,11 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2562,7 +2465,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2584,7 +2487,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112154273</v>
+        <v>112154272</v>
       </c>
       <c r="B16" t="n">
         <v>44322</v>
@@ -2619,7 +2522,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2638,10 +2541,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>442541.7120545401</v>
+        <v>442480</v>
       </c>
       <c r="R16" t="n">
-        <v>6204451.031370129</v>
+        <v>6204371</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2671,19 +2574,9 @@
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2013-07-09</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2724,10 +2617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112145588</v>
+        <v>112145591</v>
       </c>
       <c r="B17" t="n">
-        <v>42578</v>
+        <v>42546</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2740,21 +2633,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100770</v>
+        <v>102923</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Lycaena hippothoe</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2782,16 +2675,17 @@
           <t>födosökande</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442602.7188004656</v>
+        <v>442543</v>
       </c>
       <c r="R17" t="n">
-        <v>6204401.54979612</v>
+        <v>6204460</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2821,19 +2715,14 @@
           <t>2013-06-12</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2013-06-12</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2842,6 +2731,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2852,7 +2742,17 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>på praktveronika</t>
+          <t>på tjärblomster</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>NON 04542</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -1572,10 +1572,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112145588</v>
+        <v>112154282</v>
       </c>
       <c r="B9" t="n">
-        <v>42578</v>
+        <v>44328</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,26 +1588,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1615,19 +1615,9 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1636,10 +1626,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442603</v>
+        <v>442664</v>
       </c>
       <c r="R9" t="n">
-        <v>6204402</v>
+        <v>6204260</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1666,12 +1656,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1685,12 +1675,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på praktveronika</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1701,7 +1691,7 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1712,10 +1702,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112154282</v>
+        <v>112154272</v>
       </c>
       <c r="B10" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1747,7 +1737,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1766,10 +1756,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442664</v>
+        <v>442480</v>
       </c>
       <c r="R10" t="n">
-        <v>6204260</v>
+        <v>6204371</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1820,7 +1810,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1842,10 +1832,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112154276</v>
+        <v>112145591</v>
       </c>
       <c r="B11" t="n">
-        <v>39449</v>
+        <v>42552</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1858,21 +1848,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102471</v>
+        <v>102923</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Lycaena hippothoe</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1885,21 +1875,32 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>vilande</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442616</v>
+        <v>442543</v>
       </c>
       <c r="R11" t="n">
-        <v>6204441</v>
+        <v>6204460</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1926,12 +1927,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1940,17 +1946,28 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på tjärblomster</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>NON 04542</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1961,7 +1978,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1975,7 +1992,7 @@
         <v>112154281</v>
       </c>
       <c r="B12" t="n">
-        <v>42578</v>
+        <v>42584</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2097,10 +2114,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112154273</v>
+        <v>112154275</v>
       </c>
       <c r="B13" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2132,7 +2149,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2151,10 +2168,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442542</v>
+        <v>442616</v>
       </c>
       <c r="R13" t="n">
-        <v>6204451</v>
+        <v>6204441</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2227,10 +2244,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112154283</v>
+        <v>112154276</v>
       </c>
       <c r="B14" t="n">
-        <v>44331</v>
+        <v>39455</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2243,21 +2260,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>201164</v>
+        <v>102471</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sexfläckig bastardsvärmare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Zygaena filipendulae</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Poda, 1761)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2272,7 +2289,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2281,10 +2298,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442664</v>
+        <v>442616</v>
       </c>
       <c r="R14" t="n">
-        <v>6204260</v>
+        <v>6204441</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2357,10 +2374,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112154275</v>
+        <v>112154273</v>
       </c>
       <c r="B15" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2392,7 +2409,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2411,10 +2428,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>442616</v>
+        <v>442542</v>
       </c>
       <c r="R15" t="n">
-        <v>6204441</v>
+        <v>6204451</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2487,10 +2504,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112154272</v>
+        <v>112145588</v>
       </c>
       <c r="B16" t="n">
-        <v>44322</v>
+        <v>42584</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2503,26 +2520,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2530,9 +2547,19 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2541,10 +2568,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>442480</v>
+        <v>442603</v>
       </c>
       <c r="R16" t="n">
-        <v>6204371</v>
+        <v>6204402</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2571,12 +2598,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2590,12 +2617,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på praktveronika</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2606,7 +2633,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2617,10 +2644,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112145591</v>
+        <v>112154283</v>
       </c>
       <c r="B17" t="n">
-        <v>42546</v>
+        <v>44337</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2633,21 +2660,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102923</v>
+        <v>201164</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Sexfläckig bastardsvärmare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycaena hippothoe</t>
+          <t>Zygaena filipendulae</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1760)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2660,32 +2687,21 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>födosökande</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442543</v>
+        <v>442664</v>
       </c>
       <c r="R17" t="n">
-        <v>6204460</v>
+        <v>6204260</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2712,17 +2728,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2731,28 +2742,17 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>på tjärblomster</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>NON 04542</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -1572,7 +1572,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112154282</v>
+        <v>112154273</v>
       </c>
       <c r="B9" t="n">
         <v>44328</v>
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442664</v>
+        <v>442542</v>
       </c>
       <c r="R9" t="n">
-        <v>6204260</v>
+        <v>6204451</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112154272</v>
+        <v>112145588</v>
       </c>
       <c r="B10" t="n">
-        <v>44328</v>
+        <v>42584</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1718,26 +1718,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1745,9 +1745,19 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1756,10 +1766,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442480</v>
+        <v>442603</v>
       </c>
       <c r="R10" t="n">
-        <v>6204371</v>
+        <v>6204402</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1786,12 +1796,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1805,12 +1815,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på praktveronika</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1821,7 +1831,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1832,10 +1842,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112145591</v>
+        <v>112154281</v>
       </c>
       <c r="B11" t="n">
-        <v>42552</v>
+        <v>42584</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1848,21 +1858,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102923</v>
+        <v>100770</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycaena hippothoe</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1760)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1875,32 +1885,21 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>friflygande</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442543</v>
+        <v>442664</v>
       </c>
       <c r="R11" t="n">
-        <v>6204460</v>
+        <v>6204260</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1927,17 +1926,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1946,28 +1940,12 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>på tjärblomster</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>NON 04542</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1978,7 +1956,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1989,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112154281</v>
+        <v>112154272</v>
       </c>
       <c r="B12" t="n">
-        <v>42584</v>
+        <v>44328</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2005,26 +1983,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2034,7 +2012,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>friflygande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2043,10 +2021,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>442664</v>
+        <v>442480</v>
       </c>
       <c r="R12" t="n">
-        <v>6204260</v>
+        <v>6204371</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2093,6 +2071,11 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2114,10 +2097,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112154275</v>
+        <v>112154283</v>
       </c>
       <c r="B13" t="n">
-        <v>44328</v>
+        <v>44337</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2130,16 +2113,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102366</v>
+        <v>201164</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Sexfläckig bastardsvärmare</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Zygaena filipendulae</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2149,7 +2132,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2159,7 +2142,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2168,10 +2151,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>442616</v>
+        <v>442664</v>
       </c>
       <c r="R13" t="n">
-        <v>6204441</v>
+        <v>6204260</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2222,7 +2205,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2244,10 +2227,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112154276</v>
+        <v>112145591</v>
       </c>
       <c r="B14" t="n">
-        <v>39455</v>
+        <v>42552</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2260,21 +2243,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102471</v>
+        <v>102923</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Lycaena hippothoe</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2287,21 +2270,32 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>vilande</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442616</v>
+        <v>442543</v>
       </c>
       <c r="R14" t="n">
-        <v>6204441</v>
+        <v>6204460</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2328,12 +2322,17 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2342,17 +2341,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på tjärblomster</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>NON 04542</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2363,7 +2373,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2374,10 +2384,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112154273</v>
+        <v>112154276</v>
       </c>
       <c r="B15" t="n">
-        <v>44328</v>
+        <v>39455</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2390,26 +2400,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102366</v>
+        <v>102471</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Poda, 1761)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2428,10 +2438,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>442542</v>
+        <v>442616</v>
       </c>
       <c r="R15" t="n">
-        <v>6204451</v>
+        <v>6204441</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2482,7 +2492,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2504,10 +2514,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112145588</v>
+        <v>112154275</v>
       </c>
       <c r="B16" t="n">
-        <v>42584</v>
+        <v>44328</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2520,26 +2530,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2547,19 +2557,9 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2568,10 +2568,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>442603</v>
+        <v>442616</v>
       </c>
       <c r="R16" t="n">
-        <v>6204402</v>
+        <v>6204441</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2598,12 +2598,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2617,12 +2617,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>på praktveronika</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2644,10 +2644,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112154283</v>
+        <v>112154282</v>
       </c>
       <c r="B17" t="n">
-        <v>44337</v>
+        <v>44328</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>201164</v>
+        <v>102366</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sexfläckig bastardsvärmare</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Zygaena filipendulae</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">

--- a/artfynd/A 23417-2019.xlsx
+++ b/artfynd/A 23417-2019.xlsx
@@ -1572,10 +1572,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112154273</v>
+        <v>112154281</v>
       </c>
       <c r="B9" t="n">
-        <v>44328</v>
+        <v>42584</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,26 +1588,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>friflygande</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>442542</v>
+        <v>442664</v>
       </c>
       <c r="R9" t="n">
-        <v>6204451</v>
+        <v>6204260</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1676,11 +1676,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1702,10 +1697,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112145588</v>
+        <v>112154276</v>
       </c>
       <c r="B10" t="n">
-        <v>42584</v>
+        <v>39455</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1718,21 +1713,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100770</v>
+        <v>102471</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Poda, 1761)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1745,19 +1740,9 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1766,10 +1751,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442603</v>
+        <v>442616</v>
       </c>
       <c r="R10" t="n">
-        <v>6204402</v>
+        <v>6204441</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,12 +1781,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1815,12 +1800,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>på praktveronika</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1831,7 +1816,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1842,10 +1827,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112154281</v>
+        <v>112154275</v>
       </c>
       <c r="B11" t="n">
-        <v>42584</v>
+        <v>44328</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1858,26 +1843,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100770</v>
+        <v>102366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre blåvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cupido minimus</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fuessly, 1775)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1887,7 +1872,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>friflygande</t>
+          <t>vilande</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1896,10 +1881,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442664</v>
+        <v>442616</v>
       </c>
       <c r="R11" t="n">
-        <v>6204260</v>
+        <v>6204441</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1946,6 +1931,11 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>på igenväxande sandhed</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2227,10 +2217,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112145591</v>
+        <v>112154282</v>
       </c>
       <c r="B14" t="n">
-        <v>42552</v>
+        <v>44328</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2243,26 +2233,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102923</v>
+        <v>102366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycaena hippothoe</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1760)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2270,32 +2260,21 @@
           <t>ex.</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>442543</v>
+        <v>442664</v>
       </c>
       <c r="R14" t="n">
-        <v>6204460</v>
+        <v>6204260</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2322,17 +2301,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>lufthåvning</t>
+          <t>2013-07-09</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2341,28 +2315,17 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>i igenväxande hed</t>
+          <t>på igenväxande sandhed</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>på tjärblomster</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>NON 04542</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2373,7 +2336,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson</t>
+          <t>Nils Otto Nilsson, Mats Karlsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2384,10 +2347,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112154276</v>
+        <v>112154273</v>
       </c>
       <c r="B15" t="n">
-        <v>39455</v>
+        <v>44328</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2400,26 +2363,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102471</v>
+        <v>102366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Adscita statices</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2438,10 +2401,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>442616</v>
+        <v>442542</v>
       </c>
       <c r="R15" t="n">
-        <v>6204441</v>
+        <v>6204451</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2492,7 +2455,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på blmr av åkervädd m fl</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2514,10 +2477,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112154275</v>
+        <v>112145591</v>
       </c>
       <c r="B16" t="n">
-        <v>44328</v>
+        <v>42552</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2530,26 +2493,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102366</v>
+        <v>102923</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Lycaena hippothoe</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Linnaeus, 1760)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2557,21 +2520,32 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>vilande</t>
-        </is>
-      </c>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Vä, delomr 22, 700 m NNO Sigridslund, Sk</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>442616</v>
+        <v>442543</v>
       </c>
       <c r="R16" t="n">
-        <v>6204441</v>
+        <v>6204460</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2598,12 +2572,17 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>lufthåvning</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2612,17 +2591,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd m fl</t>
+          <t>på tjärblomster</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>NON 04542</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2633,7 +2623,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2644,10 +2634,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112154282</v>
+        <v>112145588</v>
       </c>
       <c r="B17" t="n">
-        <v>44328</v>
+        <v>42584</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2660,26 +2650,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102366</v>
+        <v>100770</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Mindre blåvinge</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Adscita statices</t>
+          <t>Cupido minimus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fuessly, 1775)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2687,9 +2677,19 @@
           <t>ex.</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>vilande</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>442664</v>
+        <v>442603</v>
       </c>
       <c r="R17" t="n">
-        <v>6204260</v>
+        <v>6204402</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2013-07-09</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>på igenväxande sandhed</t>
+          <t>i igenväxande hed</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på praktveronika</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Nils Otto Nilsson, Mats Karlsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
